--- a/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF20B30-8C29-496A-9523-BAA62AFE4A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8ADBBA8-1B3A-4D72-9B14-CBF395D82FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D81D4878-DD48-4A93-92A5-D0A5D9CBF40A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55B97BCF-ED2A-4B14-AE20-A91C45717C98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="296">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>48,86%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -107,10 +107,10 @@
     <t>51,14%</t>
   </si>
   <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -125,292 +125,292 @@
     <t>50,55%</t>
   </si>
   <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>52,77%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>47,4%</t>
+    <t>47,51%</t>
   </si>
   <si>
     <t>53,1%</t>
@@ -422,7 +422,7 @@
     <t>46,9%</t>
   </si>
   <si>
-    <t>52,6%</t>
+    <t>52,49%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -434,10 +434,10 @@
     <t>50,81%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
   </si>
   <si>
     <t>99,03%</t>
@@ -449,46 +449,46 @@
     <t>49,19%</t>
   </si>
   <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -500,7 +500,10 @@
     <t>51,4%</t>
   </si>
   <si>
-    <t>54,06%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -512,313 +515,322 @@
     <t>48,6%</t>
   </si>
   <si>
-    <t>45,94%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>49,79%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
   </si>
   <si>
     <t>52,25%</t>
   </si>
   <si>
-    <t>49,06%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>47,75%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -1326,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF80467-A136-419E-BE76-013C8DD64171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F594DFE-E493-45C3-9EC8-7611C244D050}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2571,7 +2583,7 @@
         <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2628,13 @@
         <v>743795</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2708,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>3297</v>
@@ -2708,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -2720,13 +2732,13 @@
         <v>3379197</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -2762,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M29" s="7">
         <v>3214</v>
@@ -2771,13 +2783,13 @@
         <v>3276544</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,7 +2801,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>15</v>
@@ -2833,7 +2845,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2857,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C076B903-730D-4DCD-837F-7E6AFA02CDAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C358334F-4C96-49B2-9331-4EE010481F0B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2874,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,39 +2991,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,39 +3036,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,39 +3081,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3148,13 +3160,13 @@
         <v>523765</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3202,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>472</v>
@@ -3199,13 +3211,13 @@
         <v>505527</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +4093,10 @@
         <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>15</v>
@@ -4120,7 +4132,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>717</v>
@@ -4129,13 +4141,13 @@
         <v>779098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,7 +4221,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>3298</v>
@@ -4221,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -4233,13 +4245,13 @@
         <v>3558309</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,7 +4269,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -4275,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M29" s="7">
         <v>3209</v>
@@ -4284,13 +4296,13 @@
         <v>3426779</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4358,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02DB404-37CE-4DC0-9006-033748C9A688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B9DFC-663C-442B-9192-BF1D7BED0B9A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4387,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,7 +4524,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4524,13 +4536,13 @@
         <v>288703</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4578,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>266</v>
@@ -4575,13 +4587,13 @@
         <v>293761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,7 +4667,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>484</v>
@@ -4667,7 +4679,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4679,13 +4691,13 @@
         <v>523084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,7 +4715,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -4721,7 +4733,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>475</v>
@@ -4730,13 +4742,13 @@
         <v>502575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4834,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4834,13 +4846,13 @@
         <v>336309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>335</v>
@@ -4885,13 +4897,13 @@
         <v>318565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4977,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>358</v>
@@ -4992,10 +5004,10 @@
         <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +5025,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -5043,10 +5055,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5144,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5144,13 +5156,13 @@
         <v>218587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>212</v>
@@ -5195,13 +5207,13 @@
         <v>211221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5287,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>263</v>
@@ -5302,10 +5314,10 @@
         <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5335,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -5353,10 +5365,10 @@
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H22" s="7">
         <v>646</v>
@@ -5454,13 +5466,13 @@
         <v>691294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,7 +5490,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -5505,13 +5517,13 @@
         <v>656558</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5621,13 @@
         <v>826167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,7 +5663,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>750</v>
@@ -5660,13 +5672,13 @@
         <v>778583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,7 +5752,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>3338</v>
@@ -5752,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -5764,13 +5776,13 @@
         <v>3544542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -5806,7 +5818,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M29" s="7">
         <v>3231</v>
@@ -5815,13 +5827,13 @@
         <v>3394350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,7 +5889,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5901,7 +5913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD0238D-AE01-456C-9C34-3662CE030869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5FA56A-0E9D-4A59-891E-90473DFB36F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5918,7 +5930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6031,7 +6043,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -6043,7 +6055,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -6055,13 +6067,13 @@
         <v>271402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6091,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -6097,7 +6109,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -6106,13 +6118,13 @@
         <v>260298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,7 +6210,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -6210,13 +6222,13 @@
         <v>554566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6273,13 @@
         <v>519298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,7 +6365,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -6365,13 +6377,13 @@
         <v>373284</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,7 +6419,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -6416,13 +6428,13 @@
         <v>322240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,7 +6508,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>599</v>
@@ -6520,13 +6532,13 @@
         <v>428556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,7 +6556,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -6571,13 +6583,13 @@
         <v>322240</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,7 +6663,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
@@ -6663,7 +6675,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -6675,13 +6687,13 @@
         <v>259512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,7 +6711,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -6717,7 +6729,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>279</v>
@@ -6726,13 +6738,13 @@
         <v>196748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,7 +6818,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>460</v>
@@ -6818,7 +6830,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -6830,13 +6842,13 @@
         <v>275622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,7 +6866,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -6872,7 +6884,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -6881,13 +6893,13 @@
         <v>277223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,7 +6985,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -6985,13 +6997,13 @@
         <v>804203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +7039,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>599</v>
@@ -7036,13 +7048,13 @@
         <v>627754</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,7 +7128,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>1062</v>
@@ -7128,7 +7140,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -7140,13 +7152,13 @@
         <v>868434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,7 +7194,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>762</v>
@@ -7191,13 +7203,13 @@
         <v>859428</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>5367</v>
@@ -7283,7 +7295,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -7295,13 +7307,13 @@
         <v>3835580</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,7 +7331,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -7337,7 +7349,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M29" s="7">
         <v>3376</v>
@@ -7346,13 +7358,13 @@
         <v>3385228</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,7 +7420,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8ADBBA8-1B3A-4D72-9B14-CBF395D82FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87378C64-B81B-4052-B4B9-C5F6C3479F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55B97BCF-ED2A-4B14-AE20-A91C45717C98}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBEACAEF-F0EB-4E4B-AE55-F5821B1DE4CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>48,86%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -107,10 +107,10 @@
     <t>51,14%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -125,7 +125,7 @@
     <t>50,55%</t>
   </si>
   <si>
-    <t>47,35%</t>
+    <t>47,25%</t>
   </si>
   <si>
     <t>53,71%</t>
@@ -143,7 +143,7 @@
     <t>46,29%</t>
   </si>
   <si>
-    <t>52,65%</t>
+    <t>52,75%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -158,10 +158,10 @@
     <t>51,27%</t>
   </si>
   <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
   </si>
   <si>
     <t>99,38%</t>
@@ -173,10 +173,10 @@
     <t>48,73%</t>
   </si>
   <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -191,730 +191,724 @@
     <t>50,88%</t>
   </si>
   <si>
-    <t>47,24%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>54,34%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>55,13%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
     <t>99,96%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -923,10 +917,10 @@
     <t>46,88%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F594DFE-E493-45C3-9EC8-7611C244D050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1403CA87-3C8C-40FD-9205-8B3CB9D0A6F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2583,7 +2577,7 @@
         <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2622,13 @@
         <v>743795</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2702,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>3297</v>
@@ -2720,7 +2714,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -2732,13 +2726,13 @@
         <v>3379197</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -2774,22 +2768,22 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>3214</v>
       </c>
       <c r="N29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2795,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>15</v>
@@ -2831,7 +2825,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
@@ -2869,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C358334F-4C96-49B2-9331-4EE010481F0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB747A-303E-4A7B-93F1-971ACCD1D0BC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4221,7 +4215,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>3298</v>
@@ -4233,7 +4227,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -4269,7 +4263,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -4287,7 +4281,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>3209</v>
@@ -4382,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B9DFC-663C-442B-9192-BF1D7BED0B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE35E56B-36C7-42A3-A74D-3617F75F14D4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5314,10 +5308,10 @@
         <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +5329,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -5365,10 +5359,10 @@
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,7 +5436,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
         <v>646</v>
@@ -5466,13 +5460,13 @@
         <v>691294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,7 +5484,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -5517,13 +5511,13 @@
         <v>656558</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5615,13 @@
         <v>826167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5666,13 @@
         <v>778583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>3338</v>
@@ -5764,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -5776,13 +5770,13 @@
         <v>3544542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5794,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -5818,7 +5812,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>3231</v>
@@ -5827,13 +5821,13 @@
         <v>3394350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5FA56A-0E9D-4A59-891E-90473DFB36F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42813E79-A868-4939-8192-5A16BF2DDCEE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5930,7 +5924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6055,7 +6049,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -6067,13 +6061,13 @@
         <v>271402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6103,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -6118,7 +6112,7 @@
         <v>260298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>234</v>
@@ -6365,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -6419,7 +6413,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -6845,10 +6839,10 @@
         <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>267</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,10 +6890,10 @@
         <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7146,13 @@
         <v>868434</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7188,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>762</v>
@@ -7203,13 +7197,13 @@
         <v>859428</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,7 +7277,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>5367</v>
@@ -7295,7 +7289,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -7304,16 +7298,16 @@
         <v>5367</v>
       </c>
       <c r="N28" s="7">
-        <v>3835580</v>
+        <v>3835581</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,7 +7325,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -7349,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M29" s="7">
         <v>3376</v>
@@ -7358,13 +7352,13 @@
         <v>3385228</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,7 +7400,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87378C64-B81B-4052-B4B9-C5F6C3479F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28D5102-6FFC-43AE-A908-AF0A743864DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBEACAEF-F0EB-4E4B-AE55-F5821B1DE4CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7117BE4B-53D1-4E0A-AE24-D5DB974CA302}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="307">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -356,7 +356,34 @@
     <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -407,22 +434,34 @@
     <t>53,03%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -548,9 +587,6 @@
     <t>49,57%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
     <t>54,02%</t>
   </si>
   <si>
@@ -563,9 +599,6 @@
     <t>45,98%</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
     <t>51,0%</t>
   </si>
   <si>
@@ -734,193 +767,199 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>57,08%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>47,38%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1403CA87-3C8C-40FD-9205-8B3CB9D0A6F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463570F9-7B9B-484B-B32A-B5A196C77722}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2708,7 +2747,7 @@
         <v>3297</v>
       </c>
       <c r="I28" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
@@ -2744,7 +2783,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>13</v>
@@ -2774,7 +2813,7 @@
         <v>3214</v>
       </c>
       <c r="N29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>101</v>
@@ -2795,7 +2834,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>15</v>
@@ -2810,7 +2849,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -2825,7 +2864,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
@@ -2863,7 +2902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB747A-303E-4A7B-93F1-971ACCD1D0BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1155CFF8-E733-43AA-8873-D25BD247A230}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2983,41 +3022,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="N4" s="7">
+        <v>287245</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,43 +3071,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D5" s="7">
+        <v>294738</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="N5" s="7">
+        <v>294738</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,43 +3122,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,7 +3199,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3154,13 +3211,13 @@
         <v>523765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>472</v>
@@ -3205,13 +3262,13 @@
         <v>505527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>317</v>
@@ -3297,7 +3354,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3309,13 +3366,13 @@
         <v>341020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3390,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -3351,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>319</v>
@@ -3360,13 +3417,13 @@
         <v>324046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,37 +3497,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I13" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="N13" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,16 +3536,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -3506,22 +3563,22 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="N14" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3545,10 +3602,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3560,10 +3617,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3595,7 +3652,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -3607,7 +3664,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3619,13 +3676,13 @@
         <v>219591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -3661,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -3670,13 +3727,13 @@
         <v>212618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,7 +3807,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>269</v>
@@ -3777,10 +3834,10 @@
         <v>27</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -3828,10 +3885,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,7 +3974,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3932,10 +3989,10 @@
         <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>618</v>
@@ -3983,10 +4040,10 @@
         <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,7 +4117,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>757</v>
@@ -4072,7 +4129,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -4084,13 +4141,13 @@
         <v>823853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,7 +4165,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>15</v>
@@ -4126,7 +4183,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>717</v>
@@ -4135,13 +4192,13 @@
         <v>779098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4296,13 @@
         <v>3558309</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4347,13 @@
         <v>3426779</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE35E56B-36C7-42A3-A74D-3617F75F14D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F625E183-37F2-493F-825D-ECED426AC598}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,7 +4575,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4530,13 +4587,13 @@
         <v>288703</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>266</v>
@@ -4581,13 +4638,13 @@
         <v>293761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>484</v>
@@ -4673,7 +4730,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4685,13 +4742,13 @@
         <v>523084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,7 +4766,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -4727,7 +4784,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>475</v>
@@ -4736,13 +4793,13 @@
         <v>502575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4885,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4840,13 +4897,13 @@
         <v>336309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,7 +4939,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>335</v>
@@ -4891,13 +4948,13 @@
         <v>318565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +5028,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>358</v>
@@ -4998,10 +5055,10 @@
         <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,7 +5076,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -5049,10 +5106,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5183,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>223</v>
@@ -5138,7 +5195,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5150,13 +5207,13 @@
         <v>218587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,7 +5231,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -5192,7 +5249,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>212</v>
@@ -5201,13 +5258,13 @@
         <v>211221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5338,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>263</v>
@@ -5293,7 +5350,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5308,10 +5365,10 @@
         <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,7 +5386,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -5347,7 +5404,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>259</v>
@@ -5359,10 +5416,10 @@
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,7 +5493,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>646</v>
@@ -5448,7 +5505,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -5460,13 +5517,13 @@
         <v>691294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,7 +5541,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -5502,7 +5559,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>580</v>
@@ -5511,13 +5568,13 @@
         <v>656558</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,7 +5660,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5615,13 +5672,13 @@
         <v>826167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>750</v>
@@ -5666,13 +5723,13 @@
         <v>778583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5827,13 @@
         <v>3544542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5878,13 @@
         <v>3394350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42813E79-A868-4939-8192-5A16BF2DDCEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397D206D-3640-4A23-B0E5-55D59C1F316A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5924,7 +5981,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6037,19 +6094,19 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
       </c>
       <c r="I4" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -6058,16 +6115,16 @@
         <v>538</v>
       </c>
       <c r="N4" s="7">
-        <v>271402</v>
+        <v>289634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6136,13 @@
         <v>331</v>
       </c>
       <c r="D5" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -6103,22 +6160,22 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
       </c>
       <c r="N5" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6187,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -6145,7 +6202,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -6160,7 +6217,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -6198,13 +6255,13 @@
         <v>717</v>
       </c>
       <c r="I7" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -6213,16 +6270,16 @@
         <v>717</v>
       </c>
       <c r="N7" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,7 +6291,7 @@
         <v>382</v>
       </c>
       <c r="D8" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -6258,22 +6315,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>382</v>
       </c>
       <c r="N8" s="7">
-        <v>519298</v>
+        <v>518390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,7 +6342,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -6300,7 +6357,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -6315,7 +6372,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -6353,13 +6410,13 @@
         <v>536</v>
       </c>
       <c r="I10" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -6368,16 +6425,16 @@
         <v>536</v>
       </c>
       <c r="N10" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6446,7 @@
         <v>360</v>
       </c>
       <c r="D11" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -6413,22 +6470,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
       </c>
       <c r="N11" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6497,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -6455,7 +6512,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -6470,7 +6527,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -6502,13 +6559,13 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>599</v>
       </c>
       <c r="I13" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -6523,16 +6580,16 @@
         <v>599</v>
       </c>
       <c r="N13" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6601,13 @@
         <v>292</v>
       </c>
       <c r="D14" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -6574,16 +6631,16 @@
         <v>292</v>
       </c>
       <c r="N14" s="7">
-        <v>322240</v>
+        <v>312556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,7 +6652,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -6610,7 +6667,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -6625,7 +6682,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -6657,19 +6714,19 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
       </c>
       <c r="I16" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -6678,16 +6735,16 @@
         <v>495</v>
       </c>
       <c r="N16" s="7">
-        <v>259512</v>
+        <v>258779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6756,13 @@
         <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -6723,22 +6780,22 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>279</v>
       </c>
       <c r="N17" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6807,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -6765,7 +6822,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -6780,7 +6837,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -6812,19 +6869,19 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>460</v>
       </c>
       <c r="I19" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -6833,16 +6890,16 @@
         <v>460</v>
       </c>
       <c r="N19" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6911,13 @@
         <v>371</v>
       </c>
       <c r="D20" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -6878,22 +6935,22 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
       </c>
       <c r="N20" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,7 +6962,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -6920,7 +6977,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -6935,7 +6992,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -6973,13 +7030,13 @@
         <v>960</v>
       </c>
       <c r="I22" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -6988,16 +7045,16 @@
         <v>960</v>
       </c>
       <c r="N22" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7066,7 @@
         <v>599</v>
       </c>
       <c r="D23" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -7033,22 +7090,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>599</v>
       </c>
       <c r="N23" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,7 +7117,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>15</v>
@@ -7075,7 +7132,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
@@ -7090,7 +7147,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>15</v>
@@ -7122,19 +7179,19 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>1062</v>
       </c>
       <c r="I25" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -7143,16 +7200,16 @@
         <v>1062</v>
       </c>
       <c r="N25" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7221,13 @@
         <v>762</v>
       </c>
       <c r="D26" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>15</v>
@@ -7188,22 +7245,22 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>762</v>
       </c>
       <c r="N26" s="7">
-        <v>859428</v>
+        <v>928721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +7272,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>15</v>
@@ -7230,7 +7287,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
@@ -7245,7 +7302,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>15</v>
@@ -7283,13 +7340,13 @@
         <v>5367</v>
       </c>
       <c r="I28" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -7298,16 +7355,16 @@
         <v>5367</v>
       </c>
       <c r="N28" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,7 +7376,7 @@
         <v>3376</v>
       </c>
       <c r="D29" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>13</v>
@@ -7343,22 +7400,22 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M29" s="7">
         <v>3376</v>
       </c>
       <c r="N29" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,7 +7427,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>15</v>
@@ -7385,7 +7442,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -7400,7 +7457,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
